--- a/Code/Results/Cases/Case_4_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.627752393445803</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9285318545920802</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2013314297168307</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.01551384409481527</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000789850253656299</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,33 +451,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3849966139658534</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.437139878162171</v>
+      </c>
+      <c r="O2">
+        <v>2.779425588676091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4.87433054965453</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.7953561067712087</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1728543012600454</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.01553883257557409</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008016847864146248</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -486,33 +498,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3365519517551974</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.444772765433385</v>
+      </c>
+      <c r="O3">
+        <v>2.497714714917876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4.424000922547748</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.7154563166166668</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1558184599952455</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.01556672746695797</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008090961699731542</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -527,33 +545,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3076715906371987</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.452075225332564</v>
+      </c>
+      <c r="O4">
+        <v>2.332222261779648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4.243140071597963</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.6832888185024331</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1489721220834355</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.01558105738423432</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008121565213867807</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -568,33 +592,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2960913924424631</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.455653104560653</v>
+      </c>
+      <c r="O5">
+        <v>2.266435157494897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4.21325665955203</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.6779690105515499</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1478406223358064</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.01558361061434166</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.000812667216583409</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -609,33 +639,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2941791319501306</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.45628206209453</v>
+      </c>
+      <c r="O6">
+        <v>2.255604867134551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4.421551570464487</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.7150210027228354</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1557257607395712</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.01556690896702673</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008091372757251059</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -650,33 +686,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3075146872908476</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.452121109152571</v>
+      </c>
+      <c r="O7">
+        <v>2.331328626505567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>5.365147392835638</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.8821746238759829</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1914083806762648</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.01551972960680281</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007939030838576329</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -691,33 +733,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3680950736318351</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.439193172403805</v>
+      </c>
+      <c r="O8">
+        <v>2.680593491954554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>7.335594062356677</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.228896568549771</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2658356733928144</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.01553724005227242</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007649864337543158</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -732,33 +780,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4952489892059617</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.437501329126547</v>
+      </c>
+      <c r="O9">
+        <v>3.436753000528739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>8.893943193399423</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.501976777671246</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3247017765711178</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.01563513857735988</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007440086694737308</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -773,33 +827,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5962253129730044</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.455488806523306</v>
+      </c>
+      <c r="O10">
+        <v>4.055435887752282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>9.637404487955223</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.632111510649622</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3528015170494996</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.01570346085691554</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.000734435220266727</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -814,33 +874,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.6444900437130201</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.469202283407952</v>
+      </c>
+      <c r="O11">
+        <v>4.356128564107166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>9.924998672785705</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.682441576487349</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3636750550540171</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.0157333367345398</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007307964514238984</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -855,33 +921,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6631731321999865</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.475333019121791</v>
+      </c>
+      <c r="O12">
+        <v>4.473339537090254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>9.862770699427074</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.671551691704224</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.361322114360064</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.01572671350499322</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007315808918053188</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -896,33 +968,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6591300341046065</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.473968356855721</v>
+      </c>
+      <c r="O13">
+        <v>4.447936789262002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>9.660936491730922</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.636229829329068</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3536911477600029</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.01570583466477471</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007341361862789513</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -937,33 +1015,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6460185103641578</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.469686946178342</v>
+      </c>
+      <c r="O14">
+        <v>4.365700804503689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>9.538132829630399</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.614737717435162</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3490486940414002</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.01569358693163947</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007356993160081733</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -978,33 +1062,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.6380425928453093</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.467191314110195</v>
+      </c>
+      <c r="O15">
+        <v>4.315783690365294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>8.846140099612853</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.493607335296588</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3228954439775436</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.01563119892578646</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007446329632762784</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1019,33 +1109,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.593123758331302</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.454715414058484</v>
+      </c>
+      <c r="O16">
+        <v>4.03621898762492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>8.431187304698256</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.42094181472919</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3072175251903388</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.01559939123759468</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007500997014852479</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1060,33 +1156,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5662107153791283</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.448570981409745</v>
+      </c>
+      <c r="O17">
+        <v>3.870020929920258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>8.195693737718898</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.379688547750561</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.2983213593762031</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01558329332101316</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007532417878612069</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1101,33 +1203,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5509453716688739</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.445547433309713</v>
+      </c>
+      <c r="O18">
+        <v>3.776199609608483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>8.116475380458326</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.365808517694347</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2953289453722903</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.01557820461485182</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007543055092616414</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1142,33 +1250,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.5458116512388784</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.444607520967267</v>
+      </c>
+      <c r="O19">
+        <v>3.744721820130763</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>8.4750237832626</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.42861976023579</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3088736233423361</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.01560254605311506</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007495180496692417</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1183,33 +1297,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5690530011499533</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.449171284920496</v>
+      </c>
+      <c r="O20">
+        <v>3.887525850570199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>9.720045756286027</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1.646574379841127</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3559258451687271</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.01571185325698909</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007333860830187482</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1224,33 +1344,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6498580164512191</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.470917765950716</v>
+      </c>
+      <c r="O21">
+        <v>4.389759522080595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>10.56975314879298</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.795272293626965</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.3880607145222115</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.01580701313461486</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007227584668305597</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1265,33 +1391,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.7050812134253732</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.490685637926077</v>
+      </c>
+      <c r="O22">
+        <v>4.737857849884278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>10.11253010691757</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.715259088525386</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.3707665677715823</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.01575382110916701</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007284418807037888</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1306,33 +1438,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6753592886620225</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.479571524740138</v>
+      </c>
+      <c r="O23">
+        <v>4.550030295157057</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>8.455195833563494</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.425146946313703</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3081245391828276</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.01560111298559486</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007497810163955651</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1347,33 +1485,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5677673631703328</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.448898312729995</v>
+      </c>
+      <c r="O24">
+        <v>3.879606535066188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>6.78618444254073</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.132439108010374</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.245087105469878</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.0155190860654888</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007727362671561606</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1388,10 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4597256648057026</v>
       </c>
       <c r="M25">
         <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.434978503567223</v>
+      </c>
+      <c r="O25">
+        <v>3.222726477262384</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.627752393445803</v>
+        <v>6.718716457137589</v>
       </c>
       <c r="C2">
-        <v>0.9285318545920802</v>
+        <v>3.468224236864444</v>
       </c>
       <c r="D2">
-        <v>0.2013314297168307</v>
+        <v>0.2196796755217036</v>
       </c>
       <c r="E2">
-        <v>0.01551384409481527</v>
+        <v>1.541138556322494</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000789850253656299</v>
+        <v>0.0007262334453498905</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.160011781295637</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3849966139658534</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.437139878162171</v>
+        <v>1.276297851442266</v>
       </c>
       <c r="O2">
-        <v>2.779425588676091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.87433054965453</v>
+        <v>5.710743632203616</v>
       </c>
       <c r="C3">
-        <v>0.7953561067712087</v>
+        <v>2.939282193587132</v>
       </c>
       <c r="D3">
-        <v>0.1728543012600454</v>
+        <v>0.1869521571204444</v>
       </c>
       <c r="E3">
-        <v>0.01553883257557409</v>
+        <v>1.296324406544016</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008016847864146248</v>
+        <v>0.0007426574504590611</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.888206933248554</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3365519517551974</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.444772765433385</v>
+        <v>1.238354081968936</v>
       </c>
       <c r="O3">
-        <v>2.497714714917876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.424000922547748</v>
+        <v>5.116159367484443</v>
       </c>
       <c r="C4">
-        <v>0.7154563166166668</v>
+        <v>2.628594135821004</v>
       </c>
       <c r="D4">
-        <v>0.1558184599952455</v>
+        <v>0.1676584155324008</v>
       </c>
       <c r="E4">
-        <v>0.01556672746695797</v>
+        <v>1.153778958826024</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008090961699731542</v>
+        <v>0.0007527687655800124</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.730838031990032</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3076715906371987</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.452075225332564</v>
+        <v>1.219268144447454</v>
       </c>
       <c r="O4">
-        <v>2.332222261779648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.243140071597963</v>
+        <v>4.8788363953052</v>
       </c>
       <c r="C5">
-        <v>0.6832888185024331</v>
+        <v>2.504861078297949</v>
       </c>
       <c r="D5">
-        <v>0.1489721220834355</v>
+        <v>0.1599608549273484</v>
       </c>
       <c r="E5">
-        <v>0.01558105738423432</v>
+        <v>1.097252787286337</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008121565213867807</v>
+        <v>0.0007569079718987577</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.668701303323772</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2960913924424631</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.455653104560653</v>
+        <v>1.21239764042069</v>
       </c>
       <c r="O5">
-        <v>2.266435157494897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.21325665955203</v>
+        <v>4.839700065100203</v>
       </c>
       <c r="C6">
-        <v>0.6779690105515499</v>
+        <v>2.484471703656993</v>
       </c>
       <c r="D6">
-        <v>0.1478406223358064</v>
+        <v>0.1586916821193682</v>
       </c>
       <c r="E6">
-        <v>0.01558361061434166</v>
+        <v>1.087951006332844</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000812667216583409</v>
+        <v>0.0007575967277876827</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.658493476838089</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2941791319501306</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.45628206209453</v>
+        <v>1.211307655073526</v>
       </c>
       <c r="O6">
-        <v>2.255604867134551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.421551570464487</v>
+        <v>5.112939961681718</v>
       </c>
       <c r="C7">
-        <v>0.7150210027228354</v>
+        <v>2.626914581679443</v>
       </c>
       <c r="D7">
-        <v>0.1557257607395712</v>
+        <v>0.1675539800870922</v>
       </c>
       <c r="E7">
-        <v>0.01556690896702673</v>
+        <v>1.153010763261832</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008091372757251059</v>
+        <v>0.0007528244981263033</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.729992446165355</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3075146872908476</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.452121109152571</v>
+        <v>1.219171994404178</v>
       </c>
       <c r="O7">
-        <v>2.331328626505567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.365147392835638</v>
+        <v>6.365364849341063</v>
       </c>
       <c r="C8">
-        <v>0.8821746238759829</v>
+        <v>3.282478518199582</v>
       </c>
       <c r="D8">
-        <v>0.1914083806762648</v>
+        <v>0.2082047065115518</v>
       </c>
       <c r="E8">
-        <v>0.01551972960680281</v>
+        <v>1.454850771857679</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007939030838576329</v>
+        <v>0.0007318988223423695</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.064051124916176</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3680950736318351</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.439193172403805</v>
+        <v>1.262239943082463</v>
       </c>
       <c r="O8">
-        <v>2.680593491954554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.335594062356677</v>
+        <v>9.080455287257962</v>
       </c>
       <c r="C9">
-        <v>1.228896568549771</v>
+        <v>4.718707191145995</v>
       </c>
       <c r="D9">
-        <v>0.2658356733928144</v>
+        <v>0.2963899104036471</v>
       </c>
       <c r="E9">
-        <v>0.01553724005227242</v>
+        <v>2.131889256207302</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007649864337543158</v>
+        <v>0.0006903789008843031</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.817977699035282</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4952489892059617</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.437501329126547</v>
+        <v>1.388924535034135</v>
       </c>
       <c r="O9">
-        <v>3.436753000528739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.893943193399423</v>
+        <v>11.36146171390806</v>
       </c>
       <c r="C10">
-        <v>1.501976777671246</v>
+        <v>5.941720106556431</v>
       </c>
       <c r="D10">
-        <v>0.3247017765711178</v>
+        <v>0.3703990924123843</v>
       </c>
       <c r="E10">
-        <v>0.01563513857735988</v>
+        <v>2.728680531957579</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007440086694737308</v>
+        <v>0.0006582182140393709</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.477282182901817</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5962253129730044</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.455488806523306</v>
+        <v>1.52481768610906</v>
       </c>
       <c r="O10">
-        <v>4.055435887752282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.637404487955223</v>
+        <v>12.50747951224969</v>
       </c>
       <c r="C11">
-        <v>1.632111510649622</v>
+        <v>6.562127145766112</v>
       </c>
       <c r="D11">
-        <v>0.3528015170494996</v>
+        <v>0.4075094661621392</v>
       </c>
       <c r="E11">
-        <v>0.01570346085691554</v>
+        <v>3.039851816359047</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000734435220266727</v>
+        <v>0.0006427341093133968</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.81634150892819</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6444900437130201</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.469202283407952</v>
+        <v>1.602083494618569</v>
       </c>
       <c r="O11">
-        <v>4.356128564107166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.924998672785705</v>
+        <v>12.96327139761684</v>
       </c>
       <c r="C12">
-        <v>1.682441576487349</v>
+        <v>6.810025537168144</v>
       </c>
       <c r="D12">
-        <v>0.3636750550540171</v>
+        <v>0.4222493988004175</v>
       </c>
       <c r="E12">
-        <v>0.0157333367345398</v>
+        <v>3.165962814874433</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007307964514238984</v>
+        <v>0.0006366805721606148</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.952556189188329</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6631731321999865</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.475333019121791</v>
+        <v>1.634394053384199</v>
       </c>
       <c r="O12">
-        <v>4.473339537090254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.862770699427074</v>
+        <v>12.86400444926767</v>
       </c>
       <c r="C13">
-        <v>1.671551691704224</v>
+        <v>6.755978909003375</v>
       </c>
       <c r="D13">
-        <v>0.361322114360064</v>
+        <v>0.4190402547606169</v>
       </c>
       <c r="E13">
-        <v>0.01572671350499322</v>
+        <v>3.138377785119502</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007315808918053188</v>
+        <v>0.0006379942098041302</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.922825172888452</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6591300341046065</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.473968356855721</v>
+        <v>1.627281899498229</v>
       </c>
       <c r="O13">
-        <v>4.447936789262002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.660936491730922</v>
+        <v>12.54449364962579</v>
       </c>
       <c r="C14">
-        <v>1.636229829329068</v>
+        <v>6.582233793831051</v>
       </c>
       <c r="D14">
-        <v>0.3536911477600029</v>
+        <v>0.4087069285541958</v>
       </c>
       <c r="E14">
-        <v>0.01570583466477471</v>
+        <v>3.050041348964129</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007341361862789513</v>
+        <v>0.0006422403973551649</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.827374783601925</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6460185103641578</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.469686946178342</v>
+        <v>1.604674311268553</v>
       </c>
       <c r="O14">
-        <v>4.365700804503689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.538132829630399</v>
+        <v>12.35186248251796</v>
       </c>
       <c r="C15">
-        <v>1.614737717435162</v>
+        <v>6.477641166036733</v>
       </c>
       <c r="D15">
-        <v>0.3490486940414002</v>
+        <v>0.40247418445297</v>
       </c>
       <c r="E15">
-        <v>0.01569358693163947</v>
+        <v>2.997110585174653</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007356993160081733</v>
+        <v>0.0006448139955594658</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.770010331853115</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6380425928453093</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.467191314110195</v>
+        <v>1.591255448438659</v>
       </c>
       <c r="O15">
-        <v>4.315783690365294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.846140099612853</v>
+        <v>11.28921697043711</v>
       </c>
       <c r="C16">
-        <v>1.493607335296588</v>
+        <v>5.902745931790719</v>
       </c>
       <c r="D16">
-        <v>0.3228954439775436</v>
+        <v>0.3680576284941424</v>
       </c>
       <c r="E16">
-        <v>0.01563119892578646</v>
+        <v>2.709334186789292</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007446329632762784</v>
+        <v>0.0006592079029636762</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.456076487548017</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.593123758331302</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.454715414058484</v>
+        <v>1.520141555921469</v>
       </c>
       <c r="O16">
-        <v>4.03621898762492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.431187304698256</v>
+        <v>10.66868749787363</v>
       </c>
       <c r="C17">
-        <v>1.42094181472919</v>
+        <v>5.568638495434357</v>
       </c>
       <c r="D17">
-        <v>0.3072175251903388</v>
+        <v>0.347937880518856</v>
       </c>
       <c r="E17">
-        <v>0.01559939123759468</v>
+        <v>2.544413177307746</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007500997014852479</v>
+        <v>0.0006677805801696329</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.274782588641585</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5662107153791283</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.448570981409745</v>
+        <v>1.480953097058375</v>
       </c>
       <c r="O17">
-        <v>3.870020929920258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.195693737718898</v>
+        <v>10.32148529103074</v>
       </c>
       <c r="C18">
-        <v>1.379688547750561</v>
+        <v>5.382201352901234</v>
       </c>
       <c r="D18">
-        <v>0.2983213593762031</v>
+        <v>0.3366745854058166</v>
       </c>
       <c r="E18">
-        <v>0.01558329332101316</v>
+        <v>2.453084737592832</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007532417878612069</v>
+        <v>0.0006726362805406304</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.174018450826836</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5509453716688739</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.445547433309713</v>
+        <v>1.459801543328723</v>
       </c>
       <c r="O18">
-        <v>3.776199609608483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.116475380458326</v>
+        <v>10.20544933572035</v>
       </c>
       <c r="C19">
-        <v>1.365808517694347</v>
+        <v>5.319973431896528</v>
       </c>
       <c r="D19">
-        <v>0.2953289453722903</v>
+        <v>0.3329095504344366</v>
       </c>
       <c r="E19">
-        <v>0.01557820461485182</v>
+        <v>2.422709891411245</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007543055092616414</v>
+        <v>0.0006742690188491313</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.140452833720673</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5458116512388784</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.444607520967267</v>
+        <v>1.452858903869839</v>
       </c>
       <c r="O19">
-        <v>3.744721820130763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.4750237832626</v>
+        <v>10.73370265241124</v>
       </c>
       <c r="C20">
-        <v>1.42861976023579</v>
+        <v>5.603589708624781</v>
       </c>
       <c r="D20">
-        <v>0.3088736233423361</v>
+        <v>0.3500465510814337</v>
       </c>
       <c r="E20">
-        <v>0.01560254605311506</v>
+        <v>2.561589376610328</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007495180496692417</v>
+        <v>0.0006668761640647004</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.293705449698408</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5690530011499533</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.449171284920496</v>
+        <v>1.484976218916159</v>
       </c>
       <c r="O20">
-        <v>3.887525850570199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.720045756286027</v>
+        <v>12.63768434106078</v>
       </c>
       <c r="C21">
-        <v>1.646574379841127</v>
+        <v>6.632875735304538</v>
       </c>
       <c r="D21">
-        <v>0.3559258451687271</v>
+        <v>0.4117214383507815</v>
       </c>
       <c r="E21">
-        <v>0.01571185325698909</v>
+        <v>3.075735687867038</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007333860830187482</v>
+        <v>0.0006409990532228915</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.85517572586582</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6498580164512191</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.470917765950716</v>
+        <v>1.611223211051254</v>
       </c>
       <c r="O21">
-        <v>4.389759522080595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.56975314879298</v>
+        <v>14.01484676994619</v>
       </c>
       <c r="C22">
-        <v>1.795272293626965</v>
+        <v>7.38454456307818</v>
       </c>
       <c r="D22">
-        <v>0.3880607145222115</v>
+        <v>0.4562042764832626</v>
       </c>
       <c r="E22">
-        <v>0.01580701313461486</v>
+        <v>3.462461522354403</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007227584668305597</v>
+        <v>0.0006229178817899562</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.269684758225765</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7050812134253732</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.490685637926077</v>
+        <v>1.712267142215154</v>
       </c>
       <c r="O22">
-        <v>4.737857849884278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.11253010691757</v>
+        <v>13.26468251971801</v>
       </c>
       <c r="C23">
-        <v>1.715259088525386</v>
+        <v>6.974326810652087</v>
       </c>
       <c r="D23">
-        <v>0.3707665677715823</v>
+        <v>0.4319896878463254</v>
       </c>
       <c r="E23">
-        <v>0.01575382110916701</v>
+        <v>3.250137989001189</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007284418807037888</v>
+        <v>0.0006327076359288469</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.043049597988329</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6753592886620225</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.479571524740138</v>
+        <v>1.656243753888873</v>
       </c>
       <c r="O23">
-        <v>4.550030295157057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.455195833563494</v>
+        <v>10.70427998209288</v>
       </c>
       <c r="C24">
-        <v>1.425146946313703</v>
+        <v>5.587770933853676</v>
       </c>
       <c r="D24">
-        <v>0.3081245391828276</v>
+        <v>0.3490922878481655</v>
       </c>
       <c r="E24">
-        <v>0.01560111298559486</v>
+        <v>2.553813327784979</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007497810163955651</v>
+        <v>0.0006672852729324536</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.285139782711838</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5677673631703328</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.448898312729995</v>
+        <v>1.483153128341456</v>
       </c>
       <c r="O24">
-        <v>3.879606535066188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.78618444254073</v>
+        <v>8.307337828710388</v>
       </c>
       <c r="C25">
-        <v>1.132439108010374</v>
+        <v>4.307624259414638</v>
       </c>
       <c r="D25">
-        <v>0.245087105469878</v>
+        <v>0.2712808102260311</v>
       </c>
       <c r="E25">
-        <v>0.0155190860654888</v>
+        <v>1.935694447644337</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007727362671561606</v>
+        <v>0.0007017780195097689</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.599611190838658</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4597256648057026</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.434978503567223</v>
+        <v>1.348684944954954</v>
       </c>
       <c r="O25">
-        <v>3.222726477262384</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.718716457137589</v>
+        <v>2.31038849023281</v>
       </c>
       <c r="C2">
-        <v>3.468224236864444</v>
+        <v>1.104468044484804</v>
       </c>
       <c r="D2">
-        <v>0.2196796755217036</v>
+        <v>0.07833833886036246</v>
       </c>
       <c r="E2">
-        <v>1.541138556322494</v>
+        <v>0.4103847033970851</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007262334453498905</v>
+        <v>0.002456054195868198</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.160011781295637</v>
+        <v>1.380927956172741</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.276297851442266</v>
+        <v>1.558116747980961</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.710743632203616</v>
+        <v>2.087521168377748</v>
       </c>
       <c r="C3">
-        <v>2.939282193587132</v>
+        <v>0.9870370563596111</v>
       </c>
       <c r="D3">
-        <v>0.1869521571204444</v>
+        <v>0.0710239932534904</v>
       </c>
       <c r="E3">
-        <v>1.296324406544016</v>
+        <v>0.3573130995708453</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007426574504590611</v>
+        <v>0.002464655211288213</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.888206933248554</v>
+        <v>1.326349477690698</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.238354081968936</v>
+        <v>1.550947099941951</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.116159367484443</v>
+        <v>1.952249894350871</v>
       </c>
       <c r="C4">
-        <v>2.628594135821004</v>
+        <v>0.9156467929354903</v>
       </c>
       <c r="D4">
-        <v>0.1676584155324008</v>
+        <v>0.06658642826411665</v>
       </c>
       <c r="E4">
-        <v>1.153778958826024</v>
+        <v>0.3249288306432874</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007527687655800124</v>
+        <v>0.002470192079407378</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.730838031990032</v>
+        <v>1.29379966121499</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.219268144447454</v>
+        <v>1.547110235807608</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.8788363953052</v>
+        <v>1.897507106503781</v>
       </c>
       <c r="C5">
-        <v>2.504861078297949</v>
+        <v>0.8867257192262059</v>
       </c>
       <c r="D5">
-        <v>0.1599608549273484</v>
+        <v>0.06479107234842729</v>
       </c>
       <c r="E5">
-        <v>1.097252787286337</v>
+        <v>0.3117779595192758</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007569079718987577</v>
+        <v>0.002472513047666716</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.668701303323772</v>
+        <v>1.2807719518146</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.21239764042069</v>
+        <v>1.545686433881627</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.839700065100203</v>
+        <v>1.88843975319935</v>
       </c>
       <c r="C6">
-        <v>2.484471703656993</v>
+        <v>0.881933490588608</v>
       </c>
       <c r="D6">
-        <v>0.1586916821193682</v>
+        <v>0.06449372609381498</v>
       </c>
       <c r="E6">
-        <v>1.087951006332844</v>
+        <v>0.3095969064192872</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007575967277876827</v>
+        <v>0.002472902357025461</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.658493476838089</v>
+        <v>1.27862285105715</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.211307655073526</v>
+        <v>1.545458383697593</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.112939961681718</v>
+        <v>1.951510087463589</v>
       </c>
       <c r="C7">
-        <v>2.626914581679443</v>
+        <v>0.9152560714185256</v>
       </c>
       <c r="D7">
-        <v>0.1675539800870922</v>
+        <v>0.06656216347776933</v>
       </c>
       <c r="E7">
-        <v>1.153010763261832</v>
+        <v>0.3247512934795083</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007528244981263033</v>
+        <v>0.002470223118560934</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.729992446165355</v>
+        <v>1.293623013751983</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.219171994404178</v>
+        <v>1.547090471216407</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.365364849341063</v>
+        <v>2.233209680455218</v>
       </c>
       <c r="C8">
-        <v>3.282478518199582</v>
+        <v>1.063824862137835</v>
       </c>
       <c r="D8">
-        <v>0.2082047065115518</v>
+        <v>0.0758049732036028</v>
       </c>
       <c r="E8">
-        <v>1.454850771857679</v>
+        <v>0.39204077999932</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007318988223423695</v>
+        <v>0.002458966928937606</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.064051124916176</v>
+        <v>1.361906543676056</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.262239943082463</v>
+        <v>1.555525856803314</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.080455287257962</v>
+        <v>2.798728807883776</v>
       </c>
       <c r="C9">
-        <v>4.718707191145995</v>
+        <v>1.361215418627467</v>
       </c>
       <c r="D9">
-        <v>0.2963899104036471</v>
+        <v>0.09437637035010482</v>
       </c>
       <c r="E9">
-        <v>2.131889256207302</v>
+        <v>0.5258233402816757</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0006903789008843031</v>
+        <v>0.00243890838677278</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.817977699035282</v>
+        <v>1.503686168501176</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.388924535034135</v>
+        <v>1.576664718395079</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.36146171390806</v>
+        <v>3.223164467308266</v>
       </c>
       <c r="C10">
-        <v>5.941720106556431</v>
+        <v>1.583968751356451</v>
       </c>
       <c r="D10">
-        <v>0.3703990924123843</v>
+        <v>0.1083252433422359</v>
       </c>
       <c r="E10">
-        <v>2.728680531957579</v>
+        <v>0.6255557338232904</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006582182140393709</v>
+        <v>0.002425378575158125</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.477282182901817</v>
+        <v>1.613011165616413</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.52481768610906</v>
+        <v>1.595156823469125</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.50747951224969</v>
+        <v>3.418411374456696</v>
       </c>
       <c r="C11">
-        <v>6.562127145766112</v>
+        <v>1.68635960220297</v>
       </c>
       <c r="D11">
-        <v>0.4075094661621392</v>
+        <v>0.1147443807944342</v>
       </c>
       <c r="E11">
-        <v>3.039851816359047</v>
+        <v>0.6713136812428218</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006427341093133968</v>
+        <v>0.002419481058210324</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.81634150892819</v>
+        <v>1.663946860011706</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.602083494618569</v>
+        <v>1.604247826120911</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.96327139761684</v>
+        <v>3.492675701803364</v>
       </c>
       <c r="C12">
-        <v>6.810025537168144</v>
+        <v>1.725295184530637</v>
       </c>
       <c r="D12">
-        <v>0.4222493988004175</v>
+        <v>0.117186333249748</v>
       </c>
       <c r="E12">
-        <v>3.165962814874433</v>
+        <v>0.6887030751585286</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006366805721606148</v>
+        <v>0.00241728445344004</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.952556189188329</v>
+        <v>1.683414478957303</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.634394053384199</v>
+        <v>1.607790914569534</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.86400444926767</v>
+        <v>3.476666666357232</v>
       </c>
       <c r="C13">
-        <v>6.755978909003375</v>
+        <v>1.716902324278067</v>
       </c>
       <c r="D13">
-        <v>0.4190402547606169</v>
+        <v>0.1166599094114531</v>
       </c>
       <c r="E13">
-        <v>3.138377785119502</v>
+        <v>0.6849551114119379</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006379942098041302</v>
+        <v>0.002417755906711953</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.922825172888452</v>
+        <v>1.679213697883711</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.627281899498229</v>
+        <v>1.607023329258368</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.54449364962579</v>
+        <v>3.424514463187052</v>
       </c>
       <c r="C14">
-        <v>6.582233793831051</v>
+        <v>1.689559542676079</v>
       </c>
       <c r="D14">
-        <v>0.4087069285541958</v>
+        <v>0.1149450546550099</v>
       </c>
       <c r="E14">
-        <v>3.050041348964129</v>
+        <v>0.6727430431353696</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006422403973551649</v>
+        <v>0.002419299609686816</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.827374783601925</v>
+        <v>1.665544840700036</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.604674311268553</v>
+        <v>1.604537286619717</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.35186248251796</v>
+        <v>3.392613024726302</v>
       </c>
       <c r="C15">
-        <v>6.477641166036733</v>
+        <v>1.672832751462238</v>
       </c>
       <c r="D15">
-        <v>0.40247418445297</v>
+        <v>0.1138961275341899</v>
       </c>
       <c r="E15">
-        <v>2.997110585174653</v>
+        <v>0.6652710316139263</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006448139955594658</v>
+        <v>0.002420249935939087</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.770010331853115</v>
+        <v>1.657195822940224</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.591255448438659</v>
+        <v>1.603027692225993</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.28921697043711</v>
+        <v>3.210449680910983</v>
       </c>
       <c r="C16">
-        <v>5.902745931790719</v>
+        <v>1.577299437156171</v>
       </c>
       <c r="D16">
-        <v>0.3680576284941424</v>
+        <v>0.1079072688789893</v>
       </c>
       <c r="E16">
-        <v>2.709334186789292</v>
+        <v>0.6225736748866524</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0006592079029636762</v>
+        <v>0.002425769139838607</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.456076487548017</v>
+        <v>1.60970714911312</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.520141555921469</v>
+        <v>1.594576611990988</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.66868749787363</v>
+        <v>3.099265592865663</v>
       </c>
       <c r="C17">
-        <v>5.568638495434357</v>
+        <v>1.518971211380631</v>
       </c>
       <c r="D17">
-        <v>0.347937880518856</v>
+        <v>0.1042525760041997</v>
       </c>
       <c r="E17">
-        <v>2.544413177307746</v>
+        <v>0.5964840407524861</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0006677805801696329</v>
+        <v>0.002429220644852069</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.274782588641585</v>
+        <v>1.580887022411389</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.480953097058375</v>
+        <v>1.589568062606304</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.32148529103074</v>
+        <v>3.035518574501111</v>
       </c>
       <c r="C18">
-        <v>5.382201352901234</v>
+        <v>1.485521439008039</v>
       </c>
       <c r="D18">
-        <v>0.3366745854058166</v>
+        <v>0.102157398008373</v>
       </c>
       <c r="E18">
-        <v>2.453084737592832</v>
+        <v>0.5815142417347232</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0006726362805406304</v>
+        <v>0.002431230094333232</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.174018450826836</v>
+        <v>1.564423308164848</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.459801543328723</v>
+        <v>1.586750996199996</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.20544933572035</v>
+        <v>3.013969317733881</v>
       </c>
       <c r="C19">
-        <v>5.319973431896528</v>
+        <v>1.474212636091352</v>
       </c>
       <c r="D19">
-        <v>0.3329095504344366</v>
+        <v>0.1014491757560592</v>
       </c>
       <c r="E19">
-        <v>2.422709891411245</v>
+        <v>0.5764517777492131</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0006742690188491313</v>
+        <v>0.002431914632133688</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.140452833720673</v>
+        <v>1.558868170468799</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.452858903869839</v>
+        <v>1.585808042275175</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.73370265241124</v>
+        <v>3.111080186796698</v>
       </c>
       <c r="C20">
-        <v>5.603589708624781</v>
+        <v>1.525170024151976</v>
       </c>
       <c r="D20">
-        <v>0.3500465510814337</v>
+        <v>0.1046409056673099</v>
       </c>
       <c r="E20">
-        <v>2.561589376610328</v>
+        <v>0.5992575311142616</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006668761640647004</v>
+        <v>0.00242885072050616</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.293705449698408</v>
+        <v>1.583943248003422</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.484976218916159</v>
+        <v>1.590094615780686</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.63768434106078</v>
+        <v>3.439823776994331</v>
       </c>
       <c r="C21">
-        <v>6.632875735304538</v>
+        <v>1.697586291460425</v>
       </c>
       <c r="D21">
-        <v>0.4117214383507815</v>
+        <v>0.1154484414975627</v>
       </c>
       <c r="E21">
-        <v>3.075735687867038</v>
+        <v>0.6763282971273696</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006409990532228915</v>
+        <v>0.002418845194394919</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.85517572586582</v>
+        <v>1.66955479558186</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.611223211051254</v>
+        <v>1.605264745921545</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.01484676994619</v>
+        <v>3.656599934747646</v>
       </c>
       <c r="C22">
-        <v>7.38454456307818</v>
+        <v>1.811221712757174</v>
       </c>
       <c r="D22">
-        <v>0.4562042764832626</v>
+        <v>0.1225771391655428</v>
       </c>
       <c r="E22">
-        <v>3.462461522354403</v>
+        <v>0.7270618861678031</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006229178817899562</v>
+        <v>0.002412519509766642</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.269684758225765</v>
+        <v>1.726555518486123</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.712267142215154</v>
+        <v>1.615766628526842</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.26468251971801</v>
+        <v>3.540720801741486</v>
       </c>
       <c r="C23">
-        <v>6.974326810652087</v>
+        <v>1.750481886616171</v>
       </c>
       <c r="D23">
-        <v>0.4319896878463254</v>
+        <v>0.1187662492608439</v>
       </c>
       <c r="E23">
-        <v>3.250137989001189</v>
+        <v>0.6999491709989201</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006327076359288469</v>
+        <v>0.002415876223229637</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.043049597988329</v>
+        <v>1.696035062196728</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.656243753888873</v>
+        <v>1.610106856982469</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.70427998209288</v>
+        <v>3.105738267555921</v>
       </c>
       <c r="C24">
-        <v>5.587770933853676</v>
+        <v>1.522367280321191</v>
       </c>
       <c r="D24">
-        <v>0.3490922878481655</v>
+        <v>0.1044653233243338</v>
       </c>
       <c r="E24">
-        <v>2.553813327784979</v>
+        <v>0.5980035447438468</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0006672852729324536</v>
+        <v>0.002429017884971518</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.285139782711838</v>
+        <v>1.58256120071762</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.483153128341456</v>
+        <v>1.589856366899753</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.307337828710388</v>
+        <v>2.644240286449246</v>
       </c>
       <c r="C25">
-        <v>4.307624259414638</v>
+        <v>1.280057604078536</v>
       </c>
       <c r="D25">
-        <v>0.2712808102260311</v>
+        <v>0.08930124219965307</v>
       </c>
       <c r="E25">
-        <v>1.935694447644337</v>
+        <v>0.489402572772633</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007017780195097689</v>
+        <v>0.002444121224015902</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.599611190838658</v>
+        <v>1.464451400502284</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.348684944954954</v>
+        <v>1.570437745741742</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.31038849023281</v>
+        <v>6.718716457137418</v>
       </c>
       <c r="C2">
-        <v>1.104468044484804</v>
+        <v>3.468224236865012</v>
       </c>
       <c r="D2">
-        <v>0.07833833886036246</v>
+        <v>0.219679675521661</v>
       </c>
       <c r="E2">
-        <v>0.4103847033970851</v>
+        <v>1.54113855632248</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002456054195868198</v>
+        <v>0.0007262334454839765</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.380927956172741</v>
+        <v>2.160011781295623</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.558116747980961</v>
+        <v>1.276297851442337</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.087521168377748</v>
+        <v>5.710743632203446</v>
       </c>
       <c r="C3">
-        <v>0.9870370563596111</v>
+        <v>2.939282193587189</v>
       </c>
       <c r="D3">
-        <v>0.0710239932534904</v>
+        <v>0.1869521571204444</v>
       </c>
       <c r="E3">
-        <v>0.3573130995708453</v>
+        <v>1.296324406544031</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002464655211288213</v>
+        <v>0.0007426574505320509</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.326349477690698</v>
+        <v>1.888206933248583</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.550947099941951</v>
+        <v>1.238354081968978</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.952249894350871</v>
+        <v>5.116159367484329</v>
       </c>
       <c r="C4">
-        <v>0.9156467929354903</v>
+        <v>2.628594135820777</v>
       </c>
       <c r="D4">
-        <v>0.06658642826411665</v>
+        <v>0.1676584155323866</v>
       </c>
       <c r="E4">
-        <v>0.3249288306432874</v>
+        <v>1.153778958826038</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002470192079407378</v>
+        <v>0.0007527687656490604</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.29379966121499</v>
+        <v>1.730838031990046</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.547110235807608</v>
+        <v>1.21926814444744</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.897507106503781</v>
+        <v>4.8788363953052</v>
       </c>
       <c r="C5">
-        <v>0.8867257192262059</v>
+        <v>2.504861078297779</v>
       </c>
       <c r="D5">
-        <v>0.06479107234842729</v>
+        <v>0.1599608549275047</v>
       </c>
       <c r="E5">
-        <v>0.3117779595192758</v>
+        <v>1.097252787286294</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002472513047666716</v>
+        <v>0.0007569079719025321</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.2807719518146</v>
+        <v>1.668701303323743</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.545686433881627</v>
+        <v>1.212397640420718</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.88843975319935</v>
+        <v>4.83970006510026</v>
       </c>
       <c r="C6">
-        <v>0.881933490588608</v>
+        <v>2.484471703657391</v>
       </c>
       <c r="D6">
-        <v>0.06449372609381498</v>
+        <v>0.1586916821191693</v>
       </c>
       <c r="E6">
-        <v>0.3095969064192872</v>
+        <v>1.087951006332915</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002472902357025461</v>
+        <v>0.0007575967277916138</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.27862285105715</v>
+        <v>1.658493476838075</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.545458383697593</v>
+        <v>1.211307655073497</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.951510087463589</v>
+        <v>5.112939961681548</v>
       </c>
       <c r="C7">
-        <v>0.9152560714185256</v>
+        <v>2.626914581679614</v>
       </c>
       <c r="D7">
-        <v>0.06656216347776933</v>
+        <v>0.1675539800868364</v>
       </c>
       <c r="E7">
-        <v>0.3247512934795083</v>
+        <v>1.153010763261776</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002470223118560934</v>
+        <v>0.0007528244981761213</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.293623013751983</v>
+        <v>1.729992446165397</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.547090471216407</v>
+        <v>1.219171994404149</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.233209680455218</v>
+        <v>6.365364849341006</v>
       </c>
       <c r="C8">
-        <v>1.063824862137835</v>
+        <v>3.282478518199639</v>
       </c>
       <c r="D8">
-        <v>0.0758049732036028</v>
+        <v>0.2082047065114097</v>
       </c>
       <c r="E8">
-        <v>0.39204077999932</v>
+        <v>1.454850771857693</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002458966928937606</v>
+        <v>0.0007318988222876415</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.361906543676056</v>
+        <v>2.06405112491619</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.555525856803314</v>
+        <v>1.262239943082463</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.798728807883776</v>
+        <v>9.080455287257962</v>
       </c>
       <c r="C9">
-        <v>1.361215418627467</v>
+        <v>4.718707191146564</v>
       </c>
       <c r="D9">
-        <v>0.09437637035010482</v>
+        <v>0.2963899104034198</v>
       </c>
       <c r="E9">
-        <v>0.5258233402816757</v>
+        <v>2.13188925620733</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.00243890838677278</v>
+        <v>0.000690378900880512</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.503686168501176</v>
+        <v>2.817977699035296</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.576664718395079</v>
+        <v>1.388924535034192</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.223164467308266</v>
+        <v>11.36146171390828</v>
       </c>
       <c r="C10">
-        <v>1.583968751356451</v>
+        <v>5.941720106556318</v>
       </c>
       <c r="D10">
-        <v>0.1083252433422359</v>
+        <v>0.3703990924125833</v>
       </c>
       <c r="E10">
-        <v>0.6255557338232904</v>
+        <v>2.728680531957579</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002425378575158125</v>
+        <v>0.0006582182139389658</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.613011165616413</v>
+        <v>3.47728218290186</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.595156823469125</v>
+        <v>1.52481768610906</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.418411374456696</v>
+        <v>12.50747951224935</v>
       </c>
       <c r="C11">
-        <v>1.68635960220297</v>
+        <v>6.562127145765658</v>
       </c>
       <c r="D11">
-        <v>0.1147443807944342</v>
+        <v>0.4075094661617555</v>
       </c>
       <c r="E11">
-        <v>0.6713136812428218</v>
+        <v>3.039851816358976</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002419481058210324</v>
+        <v>0.0006427341092185298</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.663946860011706</v>
+        <v>3.816341508928161</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.604247826120911</v>
+        <v>1.602083494618512</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.492675701803364</v>
+        <v>12.96327139761718</v>
       </c>
       <c r="C12">
-        <v>1.725295184530637</v>
+        <v>6.810025537168372</v>
       </c>
       <c r="D12">
-        <v>0.117186333249748</v>
+        <v>0.4222493988007585</v>
       </c>
       <c r="E12">
-        <v>0.6887030751585286</v>
+        <v>3.165962814874419</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.00241728445344004</v>
+        <v>0.0006366805722522037</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.683414478957303</v>
+        <v>3.952556189188385</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.607790914569534</v>
+        <v>1.634394053384199</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.476666666357232</v>
+        <v>12.86400444926755</v>
       </c>
       <c r="C13">
-        <v>1.716902324278067</v>
+        <v>6.755978909003488</v>
       </c>
       <c r="D13">
-        <v>0.1166599094114531</v>
+        <v>0.4190402547604322</v>
       </c>
       <c r="E13">
-        <v>0.6849551114119379</v>
+        <v>3.138377785119459</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002417755906711953</v>
+        <v>0.000637994209908139</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.679213697883711</v>
+        <v>3.922825172888423</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.607023329258368</v>
+        <v>1.627281899498257</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.424514463187052</v>
+        <v>12.54449364962579</v>
       </c>
       <c r="C14">
-        <v>1.689559542676079</v>
+        <v>6.582233793831051</v>
       </c>
       <c r="D14">
-        <v>0.1149450546550099</v>
+        <v>0.4087069285537979</v>
       </c>
       <c r="E14">
-        <v>0.6727430431353696</v>
+        <v>3.0500413489642</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002419299609686816</v>
+        <v>0.0006422403971578681</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.665544840700036</v>
+        <v>3.827374783601925</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.604537286619717</v>
+        <v>1.604674311268553</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.392613024726302</v>
+        <v>12.35186248251807</v>
       </c>
       <c r="C15">
-        <v>1.672832751462238</v>
+        <v>6.477641166037643</v>
       </c>
       <c r="D15">
-        <v>0.1138961275341899</v>
+        <v>0.4024741844527995</v>
       </c>
       <c r="E15">
-        <v>0.6652710316139263</v>
+        <v>2.997110585174653</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002420249935939087</v>
+        <v>0.0006448139955578455</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.657195822940224</v>
+        <v>3.770010331853115</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.603027692225993</v>
+        <v>1.591255448438716</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.210449680910983</v>
+        <v>11.28921697043711</v>
       </c>
       <c r="C16">
-        <v>1.577299437156171</v>
+        <v>5.90274593179106</v>
       </c>
       <c r="D16">
-        <v>0.1079072688789893</v>
+        <v>0.3680576284942987</v>
       </c>
       <c r="E16">
-        <v>0.6225736748866524</v>
+        <v>2.709334186789363</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002425769139838607</v>
+        <v>0.0006592079029592805</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.60970714911312</v>
+        <v>3.456076487548046</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.594576611990988</v>
+        <v>1.520141555921498</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.099265592865663</v>
+        <v>10.66868749787375</v>
       </c>
       <c r="C17">
-        <v>1.518971211380631</v>
+        <v>5.568638495435039</v>
       </c>
       <c r="D17">
-        <v>0.1042525760041997</v>
+        <v>0.3479378805190834</v>
       </c>
       <c r="E17">
-        <v>0.5964840407524861</v>
+        <v>2.54441317730776</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002429220644852069</v>
+        <v>0.0006677805800763497</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.580887022411389</v>
+        <v>3.274782588641571</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.589568062606304</v>
+        <v>1.480953097058432</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.035518574501111</v>
+        <v>10.32148529103119</v>
       </c>
       <c r="C18">
-        <v>1.485521439008039</v>
+        <v>5.382201352901347</v>
       </c>
       <c r="D18">
-        <v>0.102157398008373</v>
+        <v>0.336674585405575</v>
       </c>
       <c r="E18">
-        <v>0.5815142417347232</v>
+        <v>2.45308473759286</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002431230094333232</v>
+        <v>0.0006726362806273215</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.564423308164848</v>
+        <v>3.174018450826921</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.586750996199996</v>
+        <v>1.45980154332878</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.013969317733881</v>
+        <v>10.20544933572046</v>
       </c>
       <c r="C19">
-        <v>1.474212636091352</v>
+        <v>5.31997343189596</v>
       </c>
       <c r="D19">
-        <v>0.1014491757560592</v>
+        <v>0.3329095504346355</v>
       </c>
       <c r="E19">
-        <v>0.5764517777492131</v>
+        <v>2.422709891411245</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002431914632133688</v>
+        <v>0.0006742690188585339</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.558868170468799</v>
+        <v>3.140452833720673</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.585808042275175</v>
+        <v>1.452858903869839</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.111080186796698</v>
+        <v>10.73370265241124</v>
       </c>
       <c r="C20">
-        <v>1.525170024151976</v>
+        <v>5.603589708624554</v>
       </c>
       <c r="D20">
-        <v>0.1046409056673099</v>
+        <v>0.35004655108186</v>
       </c>
       <c r="E20">
-        <v>0.5992575311142616</v>
+        <v>2.5615893766103</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.00242885072050616</v>
+        <v>0.0006668761640653562</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.583943248003422</v>
+        <v>3.293705449698422</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.590094615780686</v>
+        <v>1.484976218916159</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.439823776994331</v>
+        <v>12.63768434106078</v>
       </c>
       <c r="C21">
-        <v>1.697586291460425</v>
+        <v>6.632875735304879</v>
       </c>
       <c r="D21">
-        <v>0.1154484414975627</v>
+        <v>0.4117214383505257</v>
       </c>
       <c r="E21">
-        <v>0.6763282971273696</v>
+        <v>3.075735687866967</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002418845194394919</v>
+        <v>0.0006409990533189243</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.66955479558186</v>
+        <v>3.855175725865848</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.605264745921545</v>
+        <v>1.611223211051282</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.656599934747646</v>
+        <v>14.0148467699463</v>
       </c>
       <c r="C22">
-        <v>1.811221712757174</v>
+        <v>7.384544563078521</v>
       </c>
       <c r="D22">
-        <v>0.1225771391655428</v>
+        <v>0.4562042764830494</v>
       </c>
       <c r="E22">
-        <v>0.7270618861678031</v>
+        <v>3.462461522354346</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002412519509766642</v>
+        <v>0.0006229178816877915</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.726555518486123</v>
+        <v>4.269684758225708</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.615766628526842</v>
+        <v>1.712267142215154</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.540720801741486</v>
+        <v>13.26468251971801</v>
       </c>
       <c r="C23">
-        <v>1.750481886616171</v>
+        <v>6.974326810652656</v>
       </c>
       <c r="D23">
-        <v>0.1187662492608439</v>
+        <v>0.4319896878461122</v>
       </c>
       <c r="E23">
-        <v>0.6999491709989201</v>
+        <v>3.250137989001189</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002415876223229637</v>
+        <v>0.0006327076359260442</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.696035062196728</v>
+        <v>4.043049597988386</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.610106856982469</v>
+        <v>1.656243753888901</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.105738267555921</v>
+        <v>10.704279982093</v>
       </c>
       <c r="C24">
-        <v>1.522367280321191</v>
+        <v>5.587770933854017</v>
       </c>
       <c r="D24">
-        <v>0.1044653233243338</v>
+        <v>0.3490922878483502</v>
       </c>
       <c r="E24">
-        <v>0.5980035447438468</v>
+        <v>2.553813327785008</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002429017884971518</v>
+        <v>0.0006672852728748036</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.58256120071762</v>
+        <v>3.28513978271188</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.589856366899753</v>
+        <v>1.483153128341485</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.644240286449246</v>
+        <v>8.307337828710274</v>
       </c>
       <c r="C25">
-        <v>1.280057604078536</v>
+        <v>4.307624259414808</v>
       </c>
       <c r="D25">
-        <v>0.08930124219965307</v>
+        <v>0.2712808102262159</v>
       </c>
       <c r="E25">
-        <v>0.489402572772633</v>
+        <v>1.935694447644281</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002444121224015902</v>
+        <v>0.0007017780195980236</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.464451400502284</v>
+        <v>2.599611190838644</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.570437745741742</v>
+        <v>1.348684944954996</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.718716457137418</v>
+        <v>2.4724109279407</v>
       </c>
       <c r="C2">
-        <v>3.468224236865012</v>
+        <v>0.4628218735174414</v>
       </c>
       <c r="D2">
-        <v>0.219679675521661</v>
+        <v>0.2003060800482075</v>
       </c>
       <c r="E2">
-        <v>1.54113855632248</v>
+        <v>0.07678261481469484</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007262334454839765</v>
+        <v>0.4398413858829713</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0002553996745804366</v>
       </c>
       <c r="I2">
-        <v>2.160011781295623</v>
+        <v>0.001065529650317032</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3283846598857423</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.314389939944089</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.276297851442337</v>
+        <v>0.3445145212096037</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.8161331864790355</v>
+      </c>
+      <c r="Q2">
+        <v>1.569370140940151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.710743632203446</v>
+        <v>2.154136055898732</v>
       </c>
       <c r="C3">
-        <v>2.939282193587189</v>
+        <v>0.4201767100660732</v>
       </c>
       <c r="D3">
-        <v>0.1869521571204444</v>
+        <v>0.1739382186869136</v>
       </c>
       <c r="E3">
-        <v>1.296324406544031</v>
+        <v>0.07290494042772089</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007426574505320509</v>
+        <v>0.4052063789859375</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.166718527301214E-05</v>
       </c>
       <c r="I3">
-        <v>1.888206933248583</v>
+        <v>0.0005704782819093701</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3162831731013966</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3094103525395511</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.238354081968978</v>
+        <v>0.3044714017587609</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.8193037447727534</v>
+      </c>
+      <c r="Q3">
+        <v>1.470306880923744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.116159367484329</v>
+        <v>1.957979888993577</v>
       </c>
       <c r="C4">
-        <v>2.628594135820777</v>
+        <v>0.3940570560351233</v>
       </c>
       <c r="D4">
-        <v>0.1676584155323866</v>
+        <v>0.1578654448847345</v>
       </c>
       <c r="E4">
-        <v>1.153778958826038</v>
+        <v>0.07048850654925864</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007527687656490604</v>
+        <v>0.3843219581590489</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.102856594543567E-05</v>
       </c>
       <c r="I4">
-        <v>1.730838031990046</v>
+        <v>0.0004449241223745126</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3091250679746764</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.306588727847835</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.21926814444744</v>
+        <v>0.279901408267321</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.8219220734950099</v>
+      </c>
+      <c r="Q4">
+        <v>1.410851630103593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.8788363953052</v>
+        <v>1.876776638825959</v>
       </c>
       <c r="C5">
-        <v>2.504861078297779</v>
+        <v>0.3838762396907214</v>
       </c>
       <c r="D5">
-        <v>0.1599608549275047</v>
+        <v>0.1513408377820866</v>
       </c>
       <c r="E5">
-        <v>1.097252787286294</v>
+        <v>0.06945351946783518</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007569079719025321</v>
+        <v>0.3754792400762881</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.302627874577027E-05</v>
       </c>
       <c r="I5">
-        <v>1.668701303323743</v>
+        <v>0.0005006617112854883</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3060583740746381</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3051721777904106</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.212397640420718</v>
+        <v>0.2699555604091017</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.8234785424865976</v>
+      </c>
+      <c r="Q5">
+        <v>1.385603103034384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.83970006510026</v>
+        <v>1.861961088853462</v>
       </c>
       <c r="C6">
-        <v>2.484471703657391</v>
+        <v>0.3827401767898664</v>
       </c>
       <c r="D6">
-        <v>0.1586916821191693</v>
+        <v>0.15025785491828</v>
       </c>
       <c r="E6">
-        <v>1.087951006332915</v>
+        <v>0.06923115051091777</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007575967277916138</v>
+        <v>0.3735013044533417</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.266077310252861E-05</v>
       </c>
       <c r="I6">
-        <v>1.658493476838075</v>
+        <v>0.0005986016476340339</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3052900623034702</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3045453407645589</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.211307655073497</v>
+        <v>0.2683836019930652</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.8241470152893129</v>
+      </c>
+      <c r="Q6">
+        <v>1.379787463750318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.112939961681548</v>
+        <v>1.953266948536339</v>
       </c>
       <c r="C7">
-        <v>2.626914581679614</v>
+        <v>0.3954375696724668</v>
       </c>
       <c r="D7">
-        <v>0.1675539800868364</v>
+        <v>0.1577743389234314</v>
       </c>
       <c r="E7">
-        <v>1.153010763261776</v>
+        <v>0.07033839732214098</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007528244981761213</v>
+        <v>0.3827945976680383</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.204268596339709E-05</v>
       </c>
       <c r="I7">
-        <v>1.729992446165397</v>
+        <v>0.0006655624650475644</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3083652053608859</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3054907468011478</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.219171994404149</v>
+        <v>0.2799851519944667</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.8230493506349958</v>
+      </c>
+      <c r="Q7">
+        <v>1.406021191050115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.365364849341006</v>
+        <v>2.357978313208321</v>
       </c>
       <c r="C8">
-        <v>3.282478518199639</v>
+        <v>0.4501353557594712</v>
       </c>
       <c r="D8">
-        <v>0.2082047065114097</v>
+        <v>0.1911833512378394</v>
       </c>
       <c r="E8">
-        <v>1.454850771857693</v>
+        <v>0.07527331487789013</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007318988222876415</v>
+        <v>0.4259465031347389</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0001351952125954181</v>
       </c>
       <c r="I8">
-        <v>2.06405112491619</v>
+        <v>0.001118110873336242</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3232033031853945</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3111975402696423</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.262239943082463</v>
+        <v>0.3309942086929567</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.8186100624559387</v>
+      </c>
+      <c r="Q8">
+        <v>1.528962819801734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.080455287257962</v>
+        <v>3.152641796703449</v>
       </c>
       <c r="C9">
-        <v>4.718707191146564</v>
+        <v>0.5553757373573092</v>
       </c>
       <c r="D9">
-        <v>0.2963899104034198</v>
+        <v>0.2577993600529425</v>
       </c>
       <c r="E9">
-        <v>2.13188925620733</v>
+        <v>0.08493432027351311</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000690378900880512</v>
+        <v>0.5164714506067583</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001723527246983658</v>
       </c>
       <c r="I9">
-        <v>2.817977699035296</v>
+        <v>0.003208072591327493</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3558985798230196</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3263190556849693</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.388924535034192</v>
+        <v>0.4308792866000601</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.8133862403616092</v>
+      </c>
+      <c r="Q9">
+        <v>1.790029738784114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.36146171390828</v>
+        <v>3.714673754768739</v>
       </c>
       <c r="C10">
-        <v>5.941720106556318</v>
+        <v>0.6393095655184311</v>
       </c>
       <c r="D10">
-        <v>0.3703990924125833</v>
+        <v>0.3076170248629637</v>
       </c>
       <c r="E10">
-        <v>2.728680531957579</v>
+        <v>0.08872266434608633</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006582182139389658</v>
+        <v>0.57763192917335</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.003893564023368157</v>
       </c>
       <c r="I10">
-        <v>3.47728218290186</v>
+        <v>0.005888387512105631</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3775962438181182</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3335803583381782</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.52481768610906</v>
+        <v>0.4847163725919188</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.8198149579764049</v>
+      </c>
+      <c r="Q10">
+        <v>1.965588844016594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.50747951224935</v>
+        <v>3.814046962201132</v>
       </c>
       <c r="C11">
-        <v>6.562127145765658</v>
+        <v>0.7268493335745632</v>
       </c>
       <c r="D11">
-        <v>0.4075094661617555</v>
+        <v>0.330233118828744</v>
       </c>
       <c r="E11">
-        <v>3.039851816358976</v>
+        <v>0.06993523495770937</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006427341092185298</v>
+        <v>0.5419747050656696</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02236095473969613</v>
       </c>
       <c r="I11">
-        <v>3.816341508928161</v>
+        <v>0.007149225901041945</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3557191810530185</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.295929807954213</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.602083494618512</v>
+        <v>0.3506005883356806</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.8821415062772502</v>
+      </c>
+      <c r="Q11">
+        <v>1.844390786375925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.96327139761718</v>
+        <v>3.782955709535088</v>
       </c>
       <c r="C12">
-        <v>6.810025537168372</v>
+        <v>0.7836968960543516</v>
       </c>
       <c r="D12">
-        <v>0.4222493988007585</v>
+        <v>0.3387202002282947</v>
       </c>
       <c r="E12">
-        <v>3.165962814874419</v>
+        <v>0.06252196088858231</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006366805722522037</v>
+        <v>0.501711064402798</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.060746088903052</v>
       </c>
       <c r="I12">
-        <v>3.952556189188385</v>
+        <v>0.007252695681453147</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3338882501734446</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2658495876265015</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.634394053384199</v>
+        <v>0.2453519792640293</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.9373405365133607</v>
+      </c>
+      <c r="Q12">
+        <v>1.713400611375931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.86400444926755</v>
+        <v>3.644169403617752</v>
       </c>
       <c r="C13">
-        <v>6.755978909003488</v>
+        <v>0.8220057780509933</v>
       </c>
       <c r="D13">
-        <v>0.4190402547604322</v>
+        <v>0.3366612122657955</v>
       </c>
       <c r="E13">
-        <v>3.138377785119459</v>
+        <v>0.06304071941283507</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000637994209908139</v>
+        <v>0.4533304220879444</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1160107741686431</v>
       </c>
       <c r="I13">
-        <v>3.922825172888423</v>
+        <v>0.006765446011498533</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.30965733284539</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2381229326157666</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.627281899498257</v>
+        <v>0.1570059600208253</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.9908867090266114</v>
+      </c>
+      <c r="Q13">
+        <v>1.56008672408538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.54449364962579</v>
+        <v>3.497784301288846</v>
       </c>
       <c r="C14">
-        <v>6.582233793831051</v>
+        <v>0.8410560129661349</v>
       </c>
       <c r="D14">
-        <v>0.4087069285537979</v>
+        <v>0.3304452606681565</v>
       </c>
       <c r="E14">
-        <v>3.0500413489642</v>
+        <v>0.06811021074728885</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006422403971578681</v>
+        <v>0.4158319786249081</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1649567246217885</v>
       </c>
       <c r="I14">
-        <v>3.827374783601925</v>
+        <v>0.006253765190388449</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2915956482184612</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2199026227474228</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.604674311268553</v>
+        <v>0.1059897919314068</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>1.02829287368742</v>
+      </c>
+      <c r="Q14">
+        <v>1.442722179596558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.35186248251807</v>
+        <v>3.438272382364971</v>
       </c>
       <c r="C15">
-        <v>6.477641166037643</v>
+        <v>0.8420050070685647</v>
       </c>
       <c r="D15">
-        <v>0.4024741844527995</v>
+        <v>0.3266867434344221</v>
       </c>
       <c r="E15">
-        <v>2.997110585174653</v>
+        <v>0.06985126269317909</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006448139955578455</v>
+        <v>0.404499668907448</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.177290829289305</v>
       </c>
       <c r="I15">
-        <v>3.770010331853115</v>
+        <v>0.006110172801405689</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2864629380944876</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2154999712911945</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.591255448438716</v>
+        <v>0.09476615503253072</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>1.03680039903368</v>
+      </c>
+      <c r="Q15">
+        <v>1.407918065155343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.28921697043711</v>
+        <v>3.225844187769098</v>
       </c>
       <c r="C16">
-        <v>5.90274593179106</v>
+        <v>0.7974211502010178</v>
       </c>
       <c r="D16">
-        <v>0.3680576284942987</v>
+        <v>0.3053880474927411</v>
       </c>
       <c r="E16">
-        <v>2.709334186789363</v>
+        <v>0.06796240277564713</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0006592079029592805</v>
+        <v>0.3876627158993387</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1636889333604046</v>
       </c>
       <c r="I16">
-        <v>3.456076487548046</v>
+        <v>0.005122227314147132</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2817215472665708</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2175450083626167</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.520141555921498</v>
+        <v>0.09233687733977547</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>1.02027607094233</v>
+      </c>
+      <c r="Q16">
+        <v>1.362097685700149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.66868749787375</v>
+        <v>3.140315395581581</v>
       </c>
       <c r="C17">
-        <v>5.568638495435039</v>
+        <v>0.753255377671934</v>
       </c>
       <c r="D17">
-        <v>0.3479378805190834</v>
+        <v>0.2924411271096403</v>
       </c>
       <c r="E17">
-        <v>2.54441317730776</v>
+        <v>0.06303995638378534</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0006677805800763497</v>
+        <v>0.3945162429883027</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1254678730125534</v>
       </c>
       <c r="I17">
-        <v>3.274782588641571</v>
+        <v>0.004673322750688769</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2876466067406938</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2286021800114035</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.480953097058432</v>
+        <v>0.1153595754504337</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.988043498998465</v>
+      </c>
+      <c r="Q17">
+        <v>1.388907369468825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.32148529103119</v>
+        <v>3.156591921797656</v>
       </c>
       <c r="C18">
-        <v>5.382201352901347</v>
+        <v>0.7040679705593789</v>
       </c>
       <c r="D18">
-        <v>0.336674585405575</v>
+        <v>0.2851029040963482</v>
       </c>
       <c r="E18">
-        <v>2.45308473759286</v>
+        <v>0.05929495276996555</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0006726362806273215</v>
+        <v>0.4239604221193787</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07258853579072877</v>
       </c>
       <c r="I18">
-        <v>3.174018450826921</v>
+        <v>0.004335213308793051</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3040654494453321</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2502148651953391</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.45980154332878</v>
+        <v>0.1727987488981242</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.9396375576097711</v>
+      </c>
+      <c r="Q18">
+        <v>1.485633792795824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.20544933572046</v>
+        <v>3.24670086443939</v>
       </c>
       <c r="C19">
-        <v>5.31997343189596</v>
+        <v>0.6596087809228948</v>
       </c>
       <c r="D19">
-        <v>0.3329095504346355</v>
+        <v>0.2827494564478314</v>
       </c>
       <c r="E19">
-        <v>2.422709891411245</v>
+        <v>0.06321915955387913</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0006742690188585339</v>
+        <v>0.4681490949516416</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02772159132521779</v>
       </c>
       <c r="I19">
-        <v>3.140452833720673</v>
+        <v>0.004612896143327383</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.326945546702845</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2786861610316791</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.452858903869839</v>
+        <v>0.2693635878759579</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.8882521762391633</v>
+      </c>
+      <c r="Q19">
+        <v>1.627197619268173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.73370265241124</v>
+        <v>3.554956284264563</v>
       </c>
       <c r="C20">
-        <v>5.603589708624554</v>
+        <v>0.6223645633316721</v>
       </c>
       <c r="D20">
-        <v>0.35004655108186</v>
+        <v>0.2944475943786529</v>
       </c>
       <c r="E20">
-        <v>2.5615893766103</v>
+        <v>0.08719159606346416</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006668761640653562</v>
+        <v>0.5566695170523701</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.003214313020230897</v>
       </c>
       <c r="I20">
-        <v>3.293705449698422</v>
+        <v>0.00578703823230331</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3694004124102577</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3280604332432233</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.484976218916159</v>
+        <v>0.4704200972104502</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.822021085174228</v>
+      </c>
+      <c r="Q20">
+        <v>1.903868266501206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.63768434106078</v>
+        <v>4.014186653082106</v>
       </c>
       <c r="C21">
-        <v>6.632875735304879</v>
+        <v>0.6782713262574873</v>
       </c>
       <c r="D21">
-        <v>0.4117214383505257</v>
+        <v>0.3330852178685433</v>
       </c>
       <c r="E21">
-        <v>3.075735687866967</v>
+        <v>0.094981309797463</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006409990533189243</v>
+        <v>0.6166455540329991</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.005205105471603799</v>
       </c>
       <c r="I21">
-        <v>3.855175725865848</v>
+        <v>0.008188554943723503</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3926831218146418</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3421693570771183</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.611223211051282</v>
+        <v>0.5426561447664966</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.8183783139252512</v>
+      </c>
+      <c r="Q21">
+        <v>2.080114633228789</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.0148467699463</v>
+        <v>4.3101934475024</v>
       </c>
       <c r="C22">
-        <v>7.384544563078521</v>
+        <v>0.7155749860937419</v>
       </c>
       <c r="D22">
-        <v>0.4562042764830494</v>
+        <v>0.3585731996966217</v>
       </c>
       <c r="E22">
-        <v>3.462461522354346</v>
+        <v>0.09864935503612493</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006229178816877915</v>
+        <v>0.6546639752440058</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.006743653011597683</v>
       </c>
       <c r="I22">
-        <v>4.269684758225708</v>
+        <v>0.009709743259304737</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4073706862446187</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3506950412989127</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.712267142215154</v>
+        <v>0.5795117362881257</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.8181232464751815</v>
+      </c>
+      <c r="Q22">
+        <v>2.191685390400323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.26468251971801</v>
+        <v>4.156677391504331</v>
       </c>
       <c r="C23">
-        <v>6.974326810652656</v>
+        <v>0.6937599215929708</v>
       </c>
       <c r="D23">
-        <v>0.4319896878461122</v>
+        <v>0.3449522791273409</v>
       </c>
       <c r="E23">
-        <v>3.250137989001189</v>
+        <v>0.09685030747145262</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006327076359260442</v>
+        <v>0.6359885678262884</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.005909845532774849</v>
       </c>
       <c r="I23">
-        <v>4.043049597988386</v>
+        <v>0.008613109756895554</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4003415744892465</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3473718389046709</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.656243753888901</v>
+        <v>0.5595621304171345</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.816669835115718</v>
+      </c>
+      <c r="Q23">
+        <v>2.137259532260686</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.704279982093</v>
+        <v>3.56769068636396</v>
       </c>
       <c r="C24">
-        <v>5.587770933854017</v>
+        <v>0.6145697092804596</v>
       </c>
       <c r="D24">
-        <v>0.3490922878483502</v>
+        <v>0.2938541065780953</v>
       </c>
       <c r="E24">
-        <v>2.553813327785008</v>
+        <v>0.08977222626673864</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0006672852728748036</v>
+        <v>0.5639590887119397</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.003191586589319506</v>
       </c>
       <c r="I24">
-        <v>3.28513978271188</v>
+        <v>0.005367580598083954</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3731693536596907</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3334977193349964</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.483153128341485</v>
+        <v>0.4846641885338983</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.815140039723957</v>
+      </c>
+      <c r="Q24">
+        <v>1.92720832500919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.307337828710274</v>
+        <v>2.931511924496931</v>
       </c>
       <c r="C25">
-        <v>4.307624259414808</v>
+        <v>0.5296192295643039</v>
       </c>
       <c r="D25">
-        <v>0.2712808102262159</v>
+        <v>0.2396287424486445</v>
       </c>
       <c r="E25">
-        <v>1.935694447644281</v>
+        <v>0.08210145910851452</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007017780195980236</v>
+        <v>0.4890083473879656</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001126302927250133</v>
       </c>
       <c r="I25">
-        <v>2.599611190838644</v>
+        <v>0.002836615414434362</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3454861583208952</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.320055724201886</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1682,16 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.348684944954996</v>
+        <v>0.4042162367944258</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8163586387666513</v>
+      </c>
+      <c r="Q25">
+        <v>1.709825552052536</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.4724109279407</v>
+        <v>2.39837350456213</v>
       </c>
       <c r="C2">
-        <v>0.4628218735174414</v>
+        <v>0.4805685887467632</v>
       </c>
       <c r="D2">
-        <v>0.2003060800482075</v>
+        <v>0.2002586720547725</v>
       </c>
       <c r="E2">
-        <v>0.07678261481469484</v>
+        <v>0.07253417498682779</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4398413858829713</v>
+        <v>0.3913652324803962</v>
       </c>
       <c r="H2">
-        <v>0.0002553996745804366</v>
+        <v>0.0002889784537696283</v>
       </c>
       <c r="I2">
-        <v>0.001065529650317032</v>
+        <v>0.001266814387684612</v>
       </c>
       <c r="J2">
-        <v>0.3283846598857423</v>
+        <v>0.3561525645545771</v>
       </c>
       <c r="K2">
-        <v>0.314389939944089</v>
+        <v>0.2880028432095365</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1585545399385175</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.06926840704847237</v>
       </c>
       <c r="N2">
-        <v>0.3445145212096037</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8161331864790355</v>
+        <v>0.3511914442592285</v>
       </c>
       <c r="Q2">
-        <v>1.569370140940151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8350981785851701</v>
+      </c>
+      <c r="S2">
+        <v>1.475513788319063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.154136055898732</v>
+        <v>2.095554212510876</v>
       </c>
       <c r="C3">
-        <v>0.4201767100660732</v>
+        <v>0.4307558089729753</v>
       </c>
       <c r="D3">
-        <v>0.1739382186869136</v>
+        <v>0.1739452571583797</v>
       </c>
       <c r="E3">
-        <v>0.07290494042772089</v>
+        <v>0.06927961470586297</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4052063789859375</v>
+        <v>0.3616365247843873</v>
       </c>
       <c r="H3">
-        <v>1.166718527301214E-05</v>
+        <v>2.813874482820999E-05</v>
       </c>
       <c r="I3">
-        <v>0.0005704782819093701</v>
+        <v>0.0007540095329852115</v>
       </c>
       <c r="J3">
-        <v>0.3162831731013966</v>
+        <v>0.3442821113010268</v>
       </c>
       <c r="K3">
-        <v>0.3094103525395511</v>
+        <v>0.2858364093641654</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1624010907621276</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06491334213779965</v>
       </c>
       <c r="N3">
-        <v>0.3044714017587609</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8193037447727534</v>
+        <v>0.3105583218970196</v>
       </c>
       <c r="Q3">
-        <v>1.470306880923744</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8307608147028631</v>
+      </c>
+      <c r="S3">
+        <v>1.391151284617109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.957979888993577</v>
+        <v>1.908582406226969</v>
       </c>
       <c r="C4">
-        <v>0.3940570560351233</v>
+        <v>0.4003601180813945</v>
       </c>
       <c r="D4">
-        <v>0.1578654448847345</v>
+        <v>0.1578988132028911</v>
       </c>
       <c r="E4">
-        <v>0.07048850654925864</v>
+        <v>0.06724257541256051</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3843219581590489</v>
+        <v>0.3437374487098737</v>
       </c>
       <c r="H4">
-        <v>2.102856594543567E-05</v>
+        <v>4.607063293526892E-06</v>
       </c>
       <c r="I4">
-        <v>0.0004449241223745126</v>
+        <v>0.0005897608307687818</v>
       </c>
       <c r="J4">
-        <v>0.3091250679746764</v>
+        <v>0.3370632102942892</v>
       </c>
       <c r="K4">
-        <v>0.306588727847835</v>
+        <v>0.2846536630574796</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1648125871365806</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06280814314522232</v>
       </c>
       <c r="N4">
-        <v>0.279901408267321</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8219220734950099</v>
+        <v>0.2856367525509569</v>
       </c>
       <c r="Q4">
-        <v>1.410851630103593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8288589760391929</v>
+      </c>
+      <c r="S4">
+        <v>1.34029216472257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.876776638825959</v>
+        <v>1.831059905036398</v>
       </c>
       <c r="C5">
-        <v>0.3838762396907214</v>
+        <v>0.3884967372688095</v>
       </c>
       <c r="D5">
-        <v>0.1513408377820866</v>
+        <v>0.1513834159731857</v>
       </c>
       <c r="E5">
-        <v>0.06945351946783518</v>
+        <v>0.06636335528589399</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3754792400762881</v>
+        <v>0.3361204658616117</v>
       </c>
       <c r="H5">
-        <v>6.302627874577027E-05</v>
+        <v>2.77804456760844E-05</v>
       </c>
       <c r="I5">
-        <v>0.0005006617112854883</v>
+        <v>0.0006358298116229122</v>
       </c>
       <c r="J5">
-        <v>0.3060583740746381</v>
+        <v>0.3339203822148917</v>
       </c>
       <c r="K5">
-        <v>0.3051721777904106</v>
+        <v>0.2839020245769497</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.16565455280438</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06201417714043345</v>
       </c>
       <c r="N5">
-        <v>0.2699555604091017</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8234785424865976</v>
+        <v>0.2755512958929955</v>
       </c>
       <c r="Q5">
-        <v>1.385603103034384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8286257331169153</v>
+      </c>
+      <c r="S5">
+        <v>1.318479742207245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.861961088853462</v>
+        <v>1.816865910962463</v>
       </c>
       <c r="C6">
-        <v>0.3827401767898664</v>
+        <v>0.3871186499694801</v>
       </c>
       <c r="D6">
-        <v>0.15025785491828</v>
+        <v>0.1503019166840147</v>
       </c>
       <c r="E6">
-        <v>0.06923115051091777</v>
+        <v>0.06616911351868993</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3735013044533417</v>
+        <v>0.3343656938883655</v>
       </c>
       <c r="H6">
-        <v>7.266077310252861E-05</v>
+        <v>3.383785972199682E-05</v>
       </c>
       <c r="I6">
-        <v>0.0005986016476340339</v>
+        <v>0.0007487611472489775</v>
       </c>
       <c r="J6">
-        <v>0.3052900623034702</v>
+        <v>0.333133791558275</v>
       </c>
       <c r="K6">
-        <v>0.3045453407645589</v>
+        <v>0.2834072541913031</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1656086630012297</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06179530426163993</v>
       </c>
       <c r="N6">
-        <v>0.2683836019930652</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8241470152893129</v>
+        <v>0.273957177386265</v>
       </c>
       <c r="Q6">
-        <v>1.379787463750318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8290348506584237</v>
+      </c>
+      <c r="S6">
+        <v>1.313274428488796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.953266948536339</v>
+        <v>1.902616110209578</v>
       </c>
       <c r="C7">
-        <v>0.3954375696724668</v>
+        <v>0.4012416211170517</v>
       </c>
       <c r="D7">
-        <v>0.1577743389234314</v>
+        <v>0.1578055346574985</v>
       </c>
       <c r="E7">
-        <v>0.07033839732214098</v>
+        <v>0.06712252287712772</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3827945976680383</v>
+        <v>0.3454201791680447</v>
       </c>
       <c r="H7">
-        <v>2.204268596339709E-05</v>
+        <v>5.214489199989458E-06</v>
       </c>
       <c r="I7">
-        <v>0.0006655624650475644</v>
+        <v>0.0008535416922406114</v>
       </c>
       <c r="J7">
-        <v>0.3083652053608859</v>
+        <v>0.3315357060506514</v>
       </c>
       <c r="K7">
-        <v>0.3054907468011478</v>
+        <v>0.2832580587109561</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1641455987637102</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06242431327188669</v>
       </c>
       <c r="N7">
-        <v>0.2799851519944667</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8230493506349958</v>
+        <v>0.2856267246738042</v>
       </c>
       <c r="Q7">
-        <v>1.406021191050115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8305334760459004</v>
+      </c>
+      <c r="S7">
+        <v>1.332717199387531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.357978313208321</v>
+        <v>2.284890385055292</v>
       </c>
       <c r="C8">
-        <v>0.4501353557594712</v>
+        <v>0.4635916446520127</v>
       </c>
       <c r="D8">
-        <v>0.1911833512378394</v>
+        <v>0.1911473302927504</v>
       </c>
       <c r="E8">
-        <v>0.07527331487789013</v>
+        <v>0.07132407333214452</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4259465031347389</v>
+        <v>0.389767752527149</v>
       </c>
       <c r="H8">
-        <v>0.0001351952125954181</v>
+        <v>0.0001649583753806638</v>
       </c>
       <c r="I8">
-        <v>0.001118110873336242</v>
+        <v>0.00136885507711515</v>
       </c>
       <c r="J8">
-        <v>0.3232033031853945</v>
+        <v>0.3354889327347905</v>
       </c>
       <c r="K8">
-        <v>0.3111975402696423</v>
+        <v>0.2846764019169576</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1587258520870058</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06685884087025329</v>
       </c>
       <c r="N8">
-        <v>0.3309942086929567</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8186100624559387</v>
+        <v>0.3371546467980835</v>
       </c>
       <c r="Q8">
-        <v>1.528962819801734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8367547113084868</v>
+      </c>
+      <c r="S8">
+        <v>1.430764669754637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.152641796703449</v>
+        <v>3.037777774326742</v>
       </c>
       <c r="C9">
-        <v>0.5553757373573092</v>
+        <v>0.5867300760108947</v>
       </c>
       <c r="D9">
-        <v>0.2577993600529425</v>
+        <v>0.2575715833084189</v>
       </c>
       <c r="E9">
-        <v>0.08493432027351311</v>
+        <v>0.0794249040449877</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5164714506067583</v>
+        <v>0.4708300472956779</v>
       </c>
       <c r="H9">
-        <v>0.001723527246983658</v>
+        <v>0.001650175181172275</v>
       </c>
       <c r="I9">
-        <v>0.003208072591327493</v>
+        <v>0.003268461100896403</v>
       </c>
       <c r="J9">
-        <v>0.3558985798230196</v>
+        <v>0.3620378688478212</v>
       </c>
       <c r="K9">
-        <v>0.3263190556849693</v>
+        <v>0.2918643569466077</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1499515708277386</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.08105975209987548</v>
       </c>
       <c r="N9">
-        <v>0.4308792866000601</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8133862403616092</v>
+        <v>0.4384645369049593</v>
       </c>
       <c r="Q9">
-        <v>1.790029738784114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8512238888257713</v>
+      </c>
+      <c r="S9">
+        <v>1.649714383685193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.714673754768739</v>
+        <v>3.561123198475855</v>
       </c>
       <c r="C10">
-        <v>0.6393095655184311</v>
+        <v>0.6806831898904875</v>
       </c>
       <c r="D10">
-        <v>0.3076170248629637</v>
+        <v>0.3071712560715412</v>
       </c>
       <c r="E10">
-        <v>0.08872266434608633</v>
+        <v>0.08245441642516482</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.57763192917335</v>
+        <v>0.5447813883022121</v>
       </c>
       <c r="H10">
-        <v>0.003893564023368157</v>
+        <v>0.00359634172429768</v>
       </c>
       <c r="I10">
-        <v>0.005888387512105631</v>
+        <v>0.005636072230028155</v>
       </c>
       <c r="J10">
-        <v>0.3775962438181182</v>
+        <v>0.3523894138810135</v>
       </c>
       <c r="K10">
-        <v>0.3335803583381782</v>
+        <v>0.2916299996731269</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.141479272265677</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.09176347119716155</v>
       </c>
       <c r="N10">
-        <v>0.4847163725919188</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8198149579764049</v>
+        <v>0.4925606156721756</v>
       </c>
       <c r="Q10">
-        <v>1.965588844016594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.8759612004655679</v>
+      </c>
+      <c r="S10">
+        <v>1.777842812940293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.814046962201132</v>
+        <v>3.645113005222584</v>
       </c>
       <c r="C11">
-        <v>0.7268493335745632</v>
+        <v>0.7634764207031992</v>
       </c>
       <c r="D11">
-        <v>0.330233118828744</v>
+        <v>0.3296662610576959</v>
       </c>
       <c r="E11">
-        <v>0.06993523495770937</v>
+        <v>0.06556590802824225</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5419747050656696</v>
+        <v>0.5537315810355636</v>
       </c>
       <c r="H11">
-        <v>0.02236095473969613</v>
+        <v>0.02199216966502249</v>
       </c>
       <c r="I11">
-        <v>0.007149225901041945</v>
+        <v>0.006838679456384611</v>
       </c>
       <c r="J11">
-        <v>0.3557191810530185</v>
+        <v>0.2838839444727057</v>
       </c>
       <c r="K11">
-        <v>0.295929807954213</v>
+        <v>0.2549951974982001</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1252329187803305</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.08173601734124603</v>
       </c>
       <c r="N11">
-        <v>0.3506005883356806</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8821415062772502</v>
+        <v>0.3557515820985486</v>
       </c>
       <c r="Q11">
-        <v>1.844390786375925</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.9543183721099098</v>
+      </c>
+      <c r="S11">
+        <v>1.633322675686628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.782955709535088</v>
+        <v>3.614499946846252</v>
       </c>
       <c r="C12">
-        <v>0.7836968960543516</v>
+        <v>0.8152547518881192</v>
       </c>
       <c r="D12">
-        <v>0.3387202002282947</v>
+        <v>0.3381148067752093</v>
       </c>
       <c r="E12">
-        <v>0.06252196088858231</v>
+        <v>0.05945815444671987</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.501711064402798</v>
+        <v>0.535156325710048</v>
       </c>
       <c r="H12">
-        <v>0.060746088903052</v>
+        <v>0.06037532331296802</v>
       </c>
       <c r="I12">
-        <v>0.007252695681453147</v>
+        <v>0.00690517877441188</v>
       </c>
       <c r="J12">
-        <v>0.3338882501734446</v>
+        <v>0.2481386618472925</v>
       </c>
       <c r="K12">
-        <v>0.2658495876265015</v>
+        <v>0.2286024258237873</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1152168399907083</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.07235367444416241</v>
       </c>
       <c r="N12">
-        <v>0.2453519792640293</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9373405365133607</v>
+        <v>0.2488028265997571</v>
       </c>
       <c r="Q12">
-        <v>1.713400611375931</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.01680373044114</v>
+      </c>
+      <c r="S12">
+        <v>1.504003934381757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.644169403617752</v>
+        <v>3.492015216648497</v>
       </c>
       <c r="C13">
-        <v>0.8220057780509933</v>
+        <v>0.8502670638045231</v>
       </c>
       <c r="D13">
-        <v>0.3366612122657955</v>
+        <v>0.3360937246863358</v>
       </c>
       <c r="E13">
-        <v>0.06304071941283507</v>
+        <v>0.06106885924502592</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4533304220879444</v>
+        <v>0.4844351331336867</v>
       </c>
       <c r="H13">
-        <v>0.1160107741686431</v>
+        <v>0.115694838508233</v>
       </c>
       <c r="I13">
-        <v>0.006765446011498533</v>
+        <v>0.006489219100848764</v>
       </c>
       <c r="J13">
-        <v>0.30965733284539</v>
+        <v>0.2368359155347051</v>
       </c>
       <c r="K13">
-        <v>0.2381229326157666</v>
+        <v>0.2072126953124958</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1083484517395075</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.06281367905465274</v>
       </c>
       <c r="N13">
-        <v>0.1570059600208253</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9908867090266114</v>
+        <v>0.1594041952564353</v>
       </c>
       <c r="Q13">
-        <v>1.56008672408538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.068706730262733</v>
+      </c>
+      <c r="S13">
+        <v>1.376984737419804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.497784301288846</v>
+        <v>3.363764170753427</v>
       </c>
       <c r="C14">
-        <v>0.8410560129661349</v>
+        <v>0.8678966091033828</v>
       </c>
       <c r="D14">
-        <v>0.3304452606681565</v>
+        <v>0.3299369726835124</v>
       </c>
       <c r="E14">
-        <v>0.06811021074728885</v>
+        <v>0.06686387724251119</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4158319786249081</v>
+        <v>0.4359257596472901</v>
       </c>
       <c r="H14">
-        <v>0.1649567246217885</v>
+        <v>0.1646982942220632</v>
       </c>
       <c r="I14">
-        <v>0.006253765190388449</v>
+        <v>0.006084958475613078</v>
       </c>
       <c r="J14">
-        <v>0.2915956482184612</v>
+        <v>0.2379871593532243</v>
       </c>
       <c r="K14">
-        <v>0.2199026227474228</v>
+        <v>0.1942619625561335</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1046906834970347</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05616581186440328</v>
       </c>
       <c r="N14">
-        <v>0.1059897919314068</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.02829287368742</v>
+        <v>0.1078557048543729</v>
       </c>
       <c r="Q14">
-        <v>1.442722179596558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.100530816763523</v>
+      </c>
+      <c r="S14">
+        <v>1.287532700046768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.438272382364971</v>
+        <v>3.311625781545956</v>
       </c>
       <c r="C15">
-        <v>0.8420050070685647</v>
+        <v>0.8689458405796984</v>
       </c>
       <c r="D15">
-        <v>0.3266867434344221</v>
+        <v>0.3262078412291487</v>
       </c>
       <c r="E15">
-        <v>0.06985126269317909</v>
+        <v>0.06881109405726704</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.404499668907448</v>
+        <v>0.4181290659411445</v>
       </c>
       <c r="H15">
-        <v>0.177290829289305</v>
+        <v>0.1770577945611933</v>
       </c>
       <c r="I15">
-        <v>0.006110172801405689</v>
+        <v>0.006010433377341862</v>
       </c>
       <c r="J15">
-        <v>0.2864629380944876</v>
+        <v>0.242036932013491</v>
       </c>
       <c r="K15">
-        <v>0.2154999712911945</v>
+        <v>0.1915674834885053</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1041542672828921</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05437793510672151</v>
       </c>
       <c r="N15">
-        <v>0.09476615503253072</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.03680039903368</v>
+        <v>0.09655928787734069</v>
       </c>
       <c r="Q15">
-        <v>1.407918065155343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.105876302408433</v>
+      </c>
+      <c r="S15">
+        <v>1.263738605668152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.225844187769098</v>
+        <v>3.12446618691007</v>
       </c>
       <c r="C16">
-        <v>0.7974211502010178</v>
+        <v>0.8272915064563904</v>
       </c>
       <c r="D16">
-        <v>0.3053880474927411</v>
+        <v>0.3050411020580981</v>
       </c>
       <c r="E16">
-        <v>0.06796240277564713</v>
+        <v>0.06719156911898772</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3876627158993387</v>
+        <v>0.3705031750639023</v>
       </c>
       <c r="H16">
-        <v>0.1636889333604046</v>
+        <v>0.1635608352895304</v>
       </c>
       <c r="I16">
-        <v>0.005122227314147132</v>
+        <v>0.005226069749779683</v>
       </c>
       <c r="J16">
-        <v>0.2817215472665708</v>
+        <v>0.2771043816419763</v>
       </c>
       <c r="K16">
-        <v>0.2175450083626167</v>
+        <v>0.197310381212418</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.108184653753538</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.05325232868695196</v>
       </c>
       <c r="N16">
-        <v>0.09233687733977547</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.02027607094233</v>
+        <v>0.0946028286373064</v>
       </c>
       <c r="Q16">
-        <v>1.362097685700149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.074236368143957</v>
+      </c>
+      <c r="S16">
+        <v>1.253852649754691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.140315395581581</v>
+        <v>3.046650899036138</v>
       </c>
       <c r="C17">
-        <v>0.753255377671934</v>
+        <v>0.7848135465856387</v>
       </c>
       <c r="D17">
-        <v>0.2924411271096403</v>
+        <v>0.2921548036232764</v>
       </c>
       <c r="E17">
-        <v>0.06303995638378534</v>
+        <v>0.06197404849352672</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3945162429883027</v>
+        <v>0.3633129186459882</v>
       </c>
       <c r="H17">
-        <v>0.1254678730125534</v>
+        <v>0.1253824473534593</v>
       </c>
       <c r="I17">
-        <v>0.004673322750688769</v>
+        <v>0.004868755692119642</v>
       </c>
       <c r="J17">
-        <v>0.2876466067406938</v>
+        <v>0.3003532656634746</v>
       </c>
       <c r="K17">
-        <v>0.2286021800114035</v>
+        <v>0.208376398460949</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1134695339210499</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05560232907918028</v>
       </c>
       <c r="N17">
-        <v>0.1153595754504337</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.988043498998465</v>
+        <v>0.1182999111693803</v>
       </c>
       <c r="Q17">
-        <v>1.388907369468825</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.035266146719749</v>
+      </c>
+      <c r="S17">
+        <v>1.290761000797971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.156591921797656</v>
+        <v>3.05971271085906</v>
       </c>
       <c r="C18">
-        <v>0.7040679705593789</v>
+        <v>0.7376956130217138</v>
       </c>
       <c r="D18">
-        <v>0.2851029040963482</v>
+        <v>0.2848366124372319</v>
       </c>
       <c r="E18">
-        <v>0.05929495276996555</v>
+        <v>0.05735226086810075</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4239604221193787</v>
+        <v>0.3838454367408275</v>
       </c>
       <c r="H18">
-        <v>0.07258853579072877</v>
+        <v>0.07251239371252183</v>
       </c>
       <c r="I18">
-        <v>0.004335213308793051</v>
+        <v>0.004506656507630602</v>
       </c>
       <c r="J18">
-        <v>0.3040654494453321</v>
+        <v>0.3229920659235432</v>
       </c>
       <c r="K18">
-        <v>0.2502148651953391</v>
+        <v>0.2272580101224229</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1212492715023146</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.06176677894369575</v>
       </c>
       <c r="N18">
-        <v>0.1727987488981242</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9396375576097711</v>
+        <v>0.1768537447294278</v>
       </c>
       <c r="Q18">
-        <v>1.485633792795824</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.9843262159491957</v>
+      </c>
+      <c r="S18">
+        <v>1.382158255199386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.24670086443939</v>
+        <v>3.139351535650462</v>
       </c>
       <c r="C19">
-        <v>0.6596087809228948</v>
+        <v>0.6959828913083186</v>
       </c>
       <c r="D19">
-        <v>0.2827494564478314</v>
+        <v>0.2824737012316092</v>
       </c>
       <c r="E19">
-        <v>0.06321915955387913</v>
+        <v>0.05987112415124418</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4681490949516416</v>
+        <v>0.4211663378791428</v>
       </c>
       <c r="H19">
-        <v>0.02772159132521779</v>
+        <v>0.02762744948807239</v>
       </c>
       <c r="I19">
-        <v>0.004612896143327383</v>
+        <v>0.004786643662052725</v>
       </c>
       <c r="J19">
-        <v>0.326945546702845</v>
+        <v>0.3456764269846815</v>
       </c>
       <c r="K19">
-        <v>0.2786861610316791</v>
+        <v>0.2510597682159847</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1304247757450412</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.07055396396019376</v>
       </c>
       <c r="N19">
-        <v>0.2693635878759579</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8882521762391633</v>
+        <v>0.2749598842152494</v>
       </c>
       <c r="Q19">
-        <v>1.627197619268173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9328409798043253</v>
+      </c>
+      <c r="S19">
+        <v>1.508306170532393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.554956284264563</v>
+        <v>3.417007379710924</v>
       </c>
       <c r="C20">
-        <v>0.6223645633316721</v>
+        <v>0.6636338440771965</v>
       </c>
       <c r="D20">
-        <v>0.2944475943786529</v>
+        <v>0.2940787608673077</v>
       </c>
       <c r="E20">
-        <v>0.08719159606346416</v>
+        <v>0.08108032412291166</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5566695170523701</v>
+        <v>0.5089421572984349</v>
       </c>
       <c r="H20">
-        <v>0.003214313020230897</v>
+        <v>0.002998382342442873</v>
       </c>
       <c r="I20">
-        <v>0.00578703823230331</v>
+        <v>0.005810648143124375</v>
       </c>
       <c r="J20">
-        <v>0.3694004124102577</v>
+        <v>0.3687195179664684</v>
       </c>
       <c r="K20">
-        <v>0.3280604332432233</v>
+        <v>0.2897421386730024</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1429617833594143</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.08805428815378846</v>
       </c>
       <c r="N20">
-        <v>0.4704200972104502</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.822021085174228</v>
+        <v>0.4785360367678635</v>
       </c>
       <c r="Q20">
-        <v>1.903868266501206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8718202042925611</v>
+      </c>
+      <c r="S20">
+        <v>1.740059110369543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.014186653082106</v>
+        <v>3.816329463612135</v>
       </c>
       <c r="C21">
-        <v>0.6782713262574873</v>
+        <v>0.7162998262454607</v>
       </c>
       <c r="D21">
-        <v>0.3330852178685433</v>
+        <v>0.3324437802824889</v>
       </c>
       <c r="E21">
-        <v>0.094981309797463</v>
+        <v>0.08834539915791062</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6166455540329991</v>
+        <v>0.6420898984215029</v>
       </c>
       <c r="H21">
-        <v>0.005205105471603799</v>
+        <v>0.004685165257618029</v>
       </c>
       <c r="I21">
-        <v>0.008188554943723503</v>
+        <v>0.007765054162408802</v>
       </c>
       <c r="J21">
-        <v>0.3926831218146418</v>
+        <v>0.2895640304766829</v>
       </c>
       <c r="K21">
-        <v>0.3421693570771183</v>
+        <v>0.2897825781209882</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1367523016381433</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.096920764537618</v>
       </c>
       <c r="N21">
-        <v>0.5426561447664966</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8183783139252512</v>
+        <v>0.5495131331786922</v>
       </c>
       <c r="Q21">
-        <v>2.080114633228789</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.8928739859392891</v>
+      </c>
+      <c r="S21">
+        <v>1.818841237794487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.3101934475024</v>
+        <v>4.0708850638282</v>
       </c>
       <c r="C22">
-        <v>0.7155749860937419</v>
+        <v>0.7503021793637004</v>
       </c>
       <c r="D22">
-        <v>0.3585731996966217</v>
+        <v>0.3577285342986585</v>
       </c>
       <c r="E22">
-        <v>0.09864935503612493</v>
+        <v>0.09187831759376941</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6546639752440058</v>
+        <v>0.7380318192680164</v>
       </c>
       <c r="H22">
-        <v>0.006743653011597683</v>
+        <v>0.005979621011313552</v>
       </c>
       <c r="I22">
-        <v>0.009709743259304737</v>
+        <v>0.008864468819854032</v>
       </c>
       <c r="J22">
-        <v>0.4073706862446187</v>
+        <v>0.2411422547780688</v>
       </c>
       <c r="K22">
-        <v>0.3506950412989127</v>
+        <v>0.288688227847377</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1324206558145882</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1025801866522578</v>
       </c>
       <c r="N22">
-        <v>0.5795117362881257</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8181232464751815</v>
+        <v>0.5852281629154987</v>
       </c>
       <c r="Q22">
-        <v>2.191685390400323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.9100366436608738</v>
+      </c>
+      <c r="S22">
+        <v>1.862171030157782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.156677391504331</v>
+        <v>3.943212741153104</v>
       </c>
       <c r="C23">
-        <v>0.6937599215929708</v>
+        <v>0.7317108367785465</v>
       </c>
       <c r="D23">
-        <v>0.3449522791273409</v>
+        <v>0.3442275281700091</v>
       </c>
       <c r="E23">
-        <v>0.09685030747145262</v>
+        <v>0.09006474384821495</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6359885678262884</v>
+        <v>0.6785302037322793</v>
       </c>
       <c r="H23">
-        <v>0.005909845532774849</v>
+        <v>0.005288112566103009</v>
       </c>
       <c r="I23">
-        <v>0.008613109756895554</v>
+        <v>0.007945846768567577</v>
       </c>
       <c r="J23">
-        <v>0.4003415744892465</v>
+        <v>0.2757936170935835</v>
       </c>
       <c r="K23">
-        <v>0.3473718389046709</v>
+        <v>0.291302218446031</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1353991764891163</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1003934375919542</v>
       </c>
       <c r="N23">
-        <v>0.5595621304171345</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.816669835115718</v>
+        <v>0.5661455024764308</v>
       </c>
       <c r="Q23">
-        <v>2.137259532260686</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.8974627906960393</v>
+      </c>
+      <c r="S23">
+        <v>1.851623956480182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.56769068636396</v>
+        <v>3.428839861044821</v>
       </c>
       <c r="C24">
-        <v>0.6145697092804596</v>
+        <v>0.6557792048857607</v>
       </c>
       <c r="D24">
-        <v>0.2938541065780953</v>
+        <v>0.2934852030899862</v>
       </c>
       <c r="E24">
-        <v>0.08977222626673864</v>
+        <v>0.0834433521132194</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5639590887119397</v>
+        <v>0.5149476233102632</v>
       </c>
       <c r="H24">
-        <v>0.003191586589319506</v>
+        <v>0.00297139545609082</v>
       </c>
       <c r="I24">
-        <v>0.005367580598083954</v>
+        <v>0.005287438364120156</v>
       </c>
       <c r="J24">
-        <v>0.3731693536596907</v>
+        <v>0.372996412374377</v>
       </c>
       <c r="K24">
-        <v>0.3334977193349964</v>
+        <v>0.2944846520016</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1447970483369367</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.08979075995537045</v>
       </c>
       <c r="N24">
-        <v>0.4846641885338983</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.815140039723957</v>
+        <v>0.4929800179642712</v>
       </c>
       <c r="Q24">
-        <v>1.92720832500919</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.8642887276897966</v>
+      </c>
+      <c r="S24">
+        <v>1.761726337712133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.931511924496931</v>
+        <v>2.830323398274459</v>
       </c>
       <c r="C25">
-        <v>0.5296192295643039</v>
+        <v>0.5570888050141036</v>
       </c>
       <c r="D25">
-        <v>0.2396287424486445</v>
+        <v>0.2394668695380915</v>
       </c>
       <c r="E25">
-        <v>0.08210145910851452</v>
+        <v>0.07700024711309972</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4890083473879656</v>
+        <v>0.4414846539817461</v>
       </c>
       <c r="H25">
-        <v>0.001126302927250133</v>
+        <v>0.001106890180241682</v>
       </c>
       <c r="I25">
-        <v>0.002836615414434362</v>
+        <v>0.00306795662328252</v>
       </c>
       <c r="J25">
-        <v>0.3454861583208952</v>
+        <v>0.360153343204459</v>
       </c>
       <c r="K25">
-        <v>0.320055724201886</v>
+        <v>0.2885142011028385</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1517791522368057</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.07626962874977039</v>
       </c>
       <c r="N25">
-        <v>0.4042162367944258</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8163586387666513</v>
+        <v>0.4115521187808469</v>
       </c>
       <c r="Q25">
-        <v>1.709825552052536</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8483079740414112</v>
+      </c>
+      <c r="S25">
+        <v>1.585847662154606</v>
       </c>
     </row>
   </sheetData>
